--- a/Diana/output/output_dataset_2.xlsx
+++ b/Diana/output/output_dataset_2.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smdicher\Documents\GitHub\Abschlussarbeiten_Behr\Diana\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -313,8 +318,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,15 +378,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -423,7 +436,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,9 +468,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,6 +503,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -664,14 +679,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -705,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -722,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -739,7 +761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -756,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -773,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -790,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -807,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -824,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -841,7 +863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -858,7 +880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -875,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -892,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -909,7 +931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -926,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -943,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -960,7 +982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -977,7 +999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -994,7 +1016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1011,7 +1033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1028,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1045,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1079,7 +1101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1096,7 +1118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1113,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1130,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1147,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1181,7 +1203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -1198,7 +1220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1215,7 +1237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1232,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1249,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1266,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1283,7 +1305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1300,7 +1322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1317,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1334,7 +1356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1351,7 +1373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -1368,7 +1390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -1385,7 +1407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -1402,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -1419,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -1436,7 +1458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -1453,7 +1475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1470,7 +1492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -1487,7 +1509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1504,7 +1526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>37</v>
       </c>
@@ -1521,7 +1543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -1538,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1555,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -1572,7 +1594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>39</v>
       </c>
@@ -1589,7 +1611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -1606,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -1623,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -1640,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1657,7 +1679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -1674,7 +1696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1691,7 +1713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1708,7 +1730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -1725,7 +1747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -1742,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1759,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -1776,7 +1798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>44</v>
       </c>
@@ -1793,7 +1815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -1810,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -1827,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -1844,7 +1866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -1861,7 +1883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>46</v>
       </c>
@@ -1878,7 +1900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -1895,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -1929,7 +1951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -1946,7 +1968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -1963,7 +1985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -1980,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -1997,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -2014,7 +2036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
